--- a/biology/Histoire de la zoologie et de la botanique/Bernd_Brunner/Bernd_Brunner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bernd_Brunner/Bernd_Brunner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernd Brunner (né le 27 mai 1964 à Berlin) est un écrivain allemand.
 Il est l'auteur d'essais et d'ouvrages documentaires à la croisée de la culture, des sciences et de l'histoire.
@@ -514,18 +526,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ouvrages
-(de) Bernd Brunner, Wie das Meer nach Hause kam : Die Erfindung des Aquariums, Berlin, Transit Buchverlag, 2003, 141 p. (ISBN 3-88747-184-9)[1].
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(de) Bernd Brunner, Wie das Meer nach Hause kam : Die Erfindung des Aquariums, Berlin, Transit Buchverlag, 2003, 141 p. (ISBN 3-88747-184-9).
 (en) Bernd Brunner (trad. Ashley Marc Slapp), The Ocean at Home : An Illustrated History of the Aquarium, New York, Princeton Architectural Press, 2005, 143 p. (ISBN 1-56898-502-9).
 (de) Bernd Brunner, Eine kurze Geschichte der Bären, Berlin, Claassen Verlag, 2005, 223 p. (ISBN 3-546-00395-0).
-(en) Bernd Brunner (trad. Lori Lantz), Bears : A Brief History, New Haven (Connecticut) / London, Yale University Press, 2007, 259 p. (ISBN 978-0-300-12299-2 et 0-300-12299-3)[2].
+(en) Bernd Brunner (trad. Lori Lantz), Bears : A Brief History, New Haven (Connecticut) / London, Yale University Press, 2007, 259 p. (ISBN 978-0-300-12299-2 et 0-300-12299-3).
 (en) Bernd Brunner, Bär und Mensch : Die Geschichte einer Beziehung, Darmstadt, Wissenschaftliche Buchgesellschaft, 2010, 187 p. (ISBN 978-3-534-23098-3).
 (de) Bernd Brunner, Wie das Meer nach Hause kam : Die Erfindung des Aquariums, Berlin, Verlag Klaus Wagenbach, 2011, 137 p. (ISBN 978-3-8031-2653-5).
-(en) Bernd Brunner (trad. Ashley Marc Slapp), The Ocean at Home : An Illustrated History of the Aquarium, Londres, Reaktion Books, 2011, 168 p. (ISBN 978-1-86189-816-6)[3],[4].
+(en) Bernd Brunner (trad. Ashley Marc Slapp), The Ocean at Home : An Illustrated History of the Aquarium, Londres, Reaktion Books, 2011, 168 p. (ISBN 978-1-86189-816-6),.
 (de) Bernd Brunner, Ornithomania : Geschichte einer besonderen Leidenschaft, Berlin / Köln, Verlag Galiani / Verlag Kiepenheuer &amp; Witsch, 2017, 263 p. (ISBN 978-3-86971-117-1).
-(en) Bernd Brunner (trad. Jane Billinghurst, préf. Pete Dunne (en)), Birdmania : A Remarkable Passion for Birds, Vancouver, Berkeley, Greystone Books, 2017, 288 p. (ISBN 978-1-77164-277-4 et 1-77164-277-7).
-Autres écrits
-(en) Bernd Brunner (trad. Lori Lantz), « Humming Along », 17 juin 2014.
+(en) Bernd Brunner (trad. Jane Billinghurst, préf. Pete Dunne (en)), Birdmania : A Remarkable Passion for Birds, Vancouver, Berkeley, Greystone Books, 2017, 288 p. (ISBN 978-1-77164-277-4 et 1-77164-277-7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bernd_Brunner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernd_Brunner</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres écrits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Bernd Brunner (trad. Lori Lantz), « Humming Along », 17 juin 2014.
 (en) Bernd Brunner (trad. Lori Lantz), « Human Forms in Nature Ernst Haeckel’s Trip to South Asia and Its Aftermath », 13 septembre 2017.</t>
         </is>
       </c>
